--- a/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>36449</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27115</v>
+        <v>27321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47062</v>
+        <v>49016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1143152613363179</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08504283412510956</v>
+        <v>0.08568732472072084</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.147601401587109</v>
+        <v>0.1537306262312548</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -762,19 +762,19 @@
         <v>59418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49240</v>
+        <v>48122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71157</v>
+        <v>70670</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1879950272618961</v>
+        <v>0.1879950272618962</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1557917896543909</v>
+        <v>0.1522561299158794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2251379769792221</v>
+        <v>0.2235956349799493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>155</v>
@@ -783,19 +783,19 @@
         <v>95867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82890</v>
+        <v>81611</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111353</v>
+        <v>112324</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1509935680111598</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1305552010064675</v>
+        <v>0.1285409458007039</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.175384397641468</v>
+        <v>0.1769148841242892</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>282396</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271783</v>
+        <v>269829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291730</v>
+        <v>291524</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.885684738663682</v>
+        <v>0.8856847386636821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8523985984128912</v>
+        <v>0.8462693737687452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9149571658748905</v>
+        <v>0.9143126752792792</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>427</v>
@@ -833,19 +833,19 @@
         <v>256643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>244904</v>
+        <v>245391</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266821</v>
+        <v>267939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8120049727381039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7748620230207779</v>
+        <v>0.7764043650200507</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8442082103456092</v>
+        <v>0.8477438700841206</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>714</v>
@@ -854,19 +854,19 @@
         <v>539039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>523553</v>
+        <v>522582</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>552016</v>
+        <v>553295</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8490064319888402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8246156023585319</v>
+        <v>0.8230851158757108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8694447989935324</v>
+        <v>0.8714590541992961</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>65172</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49180</v>
+        <v>49738</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83443</v>
+        <v>85321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1228158951107978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09267868797907956</v>
+        <v>0.09373153851029968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1572478473593215</v>
+        <v>0.1607872392007617</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>216</v>
@@ -979,19 +979,19 @@
         <v>153144</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134499</v>
+        <v>134903</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172097</v>
+        <v>170991</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2802298794418657</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2461121516536457</v>
+        <v>0.2468513228830025</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3149115569907242</v>
+        <v>0.3128868202116711</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>270</v>
@@ -1000,19 +1000,19 @@
         <v>218316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>192292</v>
+        <v>193391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>245906</v>
+        <v>245937</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2026808564396413</v>
+        <v>0.2026808564396412</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1785209879196865</v>
+        <v>0.1795412207170043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2282947592747782</v>
+        <v>0.228323729237242</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>465475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>447204</v>
+        <v>445326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481467</v>
+        <v>480909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8771841048892022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8427521526406785</v>
+        <v>0.8392127607992383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9073213120209206</v>
+        <v>0.9062684614897004</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>501</v>
@@ -1050,19 +1050,19 @@
         <v>393350</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>374397</v>
+        <v>375503</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>411995</v>
+        <v>411591</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7197701205581343</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6850884430092754</v>
+        <v>0.6871131797883285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7538878483463541</v>
+        <v>0.7531486771169971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>829</v>
@@ -1071,19 +1071,19 @@
         <v>858825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>831235</v>
+        <v>831204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>884849</v>
+        <v>883750</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7973191435603588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7717052407252218</v>
+        <v>0.7716762707627581</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8214790120803134</v>
+        <v>0.8204587792829959</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>56435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44447</v>
+        <v>45774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68827</v>
+        <v>69842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.178595225250661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1406593885855459</v>
+        <v>0.1448572227122993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2178132184777386</v>
+        <v>0.221022378966842</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -1196,19 +1196,19 @@
         <v>105676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92122</v>
+        <v>92056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119188</v>
+        <v>119327</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.296525405806144</v>
+        <v>0.2965254058061439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.258492778823401</v>
+        <v>0.2583075993842009</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3344403400325807</v>
+        <v>0.3348312380831554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>261</v>
@@ -1217,19 +1217,19 @@
         <v>162111</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143272</v>
+        <v>143469</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180217</v>
+        <v>182142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2411022046406567</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2130841830628551</v>
+        <v>0.213376844709786</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.268031065791447</v>
+        <v>0.2708936844565765</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>259558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247166</v>
+        <v>246151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271546</v>
+        <v>270219</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.821404774749339</v>
+        <v>0.8214047747493389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7821867815222615</v>
+        <v>0.778977621033158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8593406114144542</v>
+        <v>0.8551427772877008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>352</v>
@@ -1267,19 +1267,19 @@
         <v>250705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>237193</v>
+        <v>237054</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>264259</v>
+        <v>264325</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7034745941938562</v>
+        <v>0.7034745941938561</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6655596599674193</v>
+        <v>0.6651687619168446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.741507221176599</v>
+        <v>0.7416924006157989</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -1288,19 +1288,19 @@
         <v>510264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>492158</v>
+        <v>490233</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>529103</v>
+        <v>528906</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7588977953593435</v>
+        <v>0.7588977953593433</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7319689342085527</v>
+        <v>0.7291063155434231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7869158169371451</v>
+        <v>0.7866231552902138</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>55606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43024</v>
+        <v>41829</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72588</v>
+        <v>71231</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1490204817040133</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1153005141504358</v>
+        <v>0.1120982422685762</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1945309176104033</v>
+        <v>0.1908949003623977</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>197</v>
@@ -1413,19 +1413,19 @@
         <v>118408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102853</v>
+        <v>102999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136209</v>
+        <v>138225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2806125606227223</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2437509006932429</v>
+        <v>0.2440970561941397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3228006032128793</v>
+        <v>0.3275765736793586</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>256</v>
@@ -1434,19 +1434,19 @@
         <v>174014</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>154037</v>
+        <v>151713</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>198879</v>
+        <v>199042</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2188561194372135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1937308989029419</v>
+        <v>0.1908082351929325</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2501291397839311</v>
+        <v>0.2503335735032039</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>317539</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>300557</v>
+        <v>301914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330121</v>
+        <v>331316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8509795182959867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8054690823895971</v>
+        <v>0.8091050996376022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8846994858495647</v>
+        <v>0.8879017577314238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -1484,19 +1484,19 @@
         <v>303553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>285752</v>
+        <v>283736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>319108</v>
+        <v>318962</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7193874393772779</v>
+        <v>0.719387439377278</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6771993967871209</v>
+        <v>0.6724234263206417</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7562490993067572</v>
+        <v>0.7559029438058606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>635</v>
@@ -1505,19 +1505,19 @@
         <v>621093</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>596228</v>
+        <v>596065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>641070</v>
+        <v>643394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7811438805627864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7498708602160689</v>
+        <v>0.7496664264967964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8062691010970581</v>
+        <v>0.8091917648070678</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>21180</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14942</v>
+        <v>14870</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28781</v>
+        <v>28753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1029844888424531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07265368639047455</v>
+        <v>0.07229981109336414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1399394635264654</v>
+        <v>0.1398033397288649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -1630,19 +1630,19 @@
         <v>45017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36969</v>
+        <v>36980</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53411</v>
+        <v>54083</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1966494480689319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1614946777754258</v>
+        <v>0.161540729150554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2333192168908181</v>
+        <v>0.2362545293735223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -1651,19 +1651,19 @@
         <v>66197</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55763</v>
+        <v>56215</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77510</v>
+        <v>77743</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1523227989587498</v>
+        <v>0.1523227989587499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1283146601146796</v>
+        <v>0.1293537511262791</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1783543573917802</v>
+        <v>0.1788921623392991</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>184485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>176884</v>
+        <v>176912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190723</v>
+        <v>190795</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8970155111575469</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8600605364735348</v>
+        <v>0.8601966602711354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9273463136095252</v>
+        <v>0.927700188906636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>392</v>
@@ -1701,19 +1701,19 @@
         <v>183901</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175507</v>
+        <v>174835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191949</v>
+        <v>191938</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8033505519310681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7666807831091819</v>
+        <v>0.7637454706264782</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8385053222245743</v>
+        <v>0.8384592708494462</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>638</v>
@@ -1722,19 +1722,19 @@
         <v>368385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357072</v>
+        <v>356839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378819</v>
+        <v>378367</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8476772010412501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8216456426082199</v>
+        <v>0.8211078376607008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8716853398853205</v>
+        <v>0.8706462488737209</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>55604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44582</v>
+        <v>44818</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66870</v>
+        <v>67010</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2054031006623509</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1646864120593595</v>
+        <v>0.1655604558192628</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2470209582732974</v>
+        <v>0.2475361009329578</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -1847,19 +1847,19 @@
         <v>93328</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82347</v>
+        <v>81603</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>105373</v>
+        <v>104912</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3538515651128072</v>
+        <v>0.3538515651128071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.312217753279297</v>
+        <v>0.3093938989867526</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3995193080495739</v>
+        <v>0.3977724265974494</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -1868,19 +1868,19 @@
         <v>148932</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130982</v>
+        <v>134227</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>164573</v>
+        <v>165988</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2786612036837872</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2450752280473806</v>
+        <v>0.2511457858160265</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3079259229607912</v>
+        <v>0.3105723234093676</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>215103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>203837</v>
+        <v>203697</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226125</v>
+        <v>225889</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7945968993376491</v>
+        <v>0.7945968993376492</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7529790417267026</v>
+        <v>0.752463899067042</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8353135879406405</v>
+        <v>0.8344395441807372</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -1918,19 +1918,19 @@
         <v>170422</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158377</v>
+        <v>158838</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>181403</v>
+        <v>182147</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.646148434887193</v>
+        <v>0.6461484348871926</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6004806919504259</v>
+        <v>0.6022275734025505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.687782246720703</v>
+        <v>0.6906061010132473</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>543</v>
@@ -1939,19 +1939,19 @@
         <v>385525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>369884</v>
+        <v>368469</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>403475</v>
+        <v>400230</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7213387963162129</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6920740770392089</v>
+        <v>0.6894276765906323</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7549247719526193</v>
+        <v>0.7488542141839732</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>119774</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99722</v>
+        <v>99931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142705</v>
+        <v>141593</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1664255286603874</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1385635512371637</v>
+        <v>0.138853035756824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1982875144505974</v>
+        <v>0.19674276311516</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>366</v>
@@ -2064,19 +2064,19 @@
         <v>288074</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>263221</v>
+        <v>263832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>312759</v>
+        <v>312852</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3731258959676307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3409345185456683</v>
+        <v>0.3417264250439054</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4050977247559703</v>
+        <v>0.4052183029055355</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>478</v>
@@ -2085,19 +2085,19 @@
         <v>407849</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>373307</v>
+        <v>370589</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>444866</v>
+        <v>441559</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2734039630529505</v>
+        <v>0.2734039630529506</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.250248999347461</v>
+        <v>0.248426609381923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2982189807724974</v>
+        <v>0.2960017744438228</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>599913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>576982</v>
+        <v>578094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>619965</v>
+        <v>619756</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8335744713396128</v>
+        <v>0.8335744713396126</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8017124855494027</v>
+        <v>0.8032572368848401</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8614364487628366</v>
+        <v>0.861146964243176</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>594</v>
@@ -2135,19 +2135,19 @@
         <v>483983</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>459298</v>
+        <v>459205</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>508836</v>
+        <v>508225</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.626874104032369</v>
+        <v>0.6268741040323691</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5949022752440297</v>
+        <v>0.5947816970944646</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6590654814543319</v>
+        <v>0.6582735749560946</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1081</v>
@@ -2156,19 +2156,19 @@
         <v>1083895</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1046878</v>
+        <v>1050185</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1118437</v>
+        <v>1121155</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7265960369470494</v>
+        <v>0.7265960369470496</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7017810192275026</v>
+        <v>0.7039982255561771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7497510006525389</v>
+        <v>0.7515733906180767</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>86117</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71559</v>
+        <v>70443</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104093</v>
+        <v>103066</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1079066673624208</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08966490003617561</v>
+        <v>0.08826586469166299</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1304300551067353</v>
+        <v>0.1291442702011366</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>274</v>
@@ -2281,19 +2281,19 @@
         <v>187172</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>165873</v>
+        <v>168253</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206566</v>
+        <v>207519</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2251477239258941</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1995271003727198</v>
+        <v>0.2023900466257758</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2484763785185195</v>
+        <v>0.2496226396776073</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>375</v>
@@ -2302,19 +2302,19 @@
         <v>273290</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>249878</v>
+        <v>246158</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303062</v>
+        <v>299619</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1677237640721559</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.153355608376141</v>
+        <v>0.1510725808083737</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1859956705621765</v>
+        <v>0.1838827865297173</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>711955</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>693979</v>
+        <v>695006</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>726513</v>
+        <v>727629</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8920933326375792</v>
+        <v>0.8920933326375793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8695699448932648</v>
+        <v>0.8708557297988632</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9103350999638244</v>
+        <v>0.911734135308337</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>788</v>
@@ -2352,19 +2352,19 @@
         <v>644159</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>624765</v>
+        <v>623812</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>665458</v>
+        <v>663078</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7748522760741059</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7515236214814804</v>
+        <v>0.7503773603223923</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8004728996272803</v>
+        <v>0.7976099533742241</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1449</v>
@@ -2373,19 +2373,19 @@
         <v>1356113</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1326341</v>
+        <v>1329784</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1379525</v>
+        <v>1383245</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8322762359278439</v>
+        <v>0.8322762359278442</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8140043294378233</v>
+        <v>0.8161172134702828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8466443916238588</v>
+        <v>0.8489274191916264</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>496338</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>458790</v>
+        <v>456484</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>538974</v>
+        <v>539034</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1404957180511736</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.129867320865736</v>
+        <v>0.1292144771635987</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1525644645291823</v>
+        <v>0.1525813764115688</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1644</v>
@@ -2498,19 +2498,19 @@
         <v>1050237</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>994144</v>
+        <v>1002324</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1095090</v>
+        <v>1096370</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2810410391840895</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2660306105763812</v>
+        <v>0.2682196122602832</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2930435315698691</v>
+        <v>0.2933860130067676</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2219</v>
@@ -2519,19 +2519,19 @@
         <v>1546575</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1484299</v>
+        <v>1483431</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1614309</v>
+        <v>1608698</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2127422016770779</v>
+        <v>0.2127422016770778</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.204175684077065</v>
+        <v>0.2040562668892864</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2220594526485106</v>
+        <v>0.2212876510752373</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3036424</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2993788</v>
+        <v>2993728</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3073972</v>
+        <v>3076278</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8595042819488264</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.847435535470818</v>
+        <v>0.8474186235884312</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8701326791342641</v>
+        <v>0.8707855228364012</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3723</v>
@@ -2569,19 +2569,19 @@
         <v>2686717</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2641864</v>
+        <v>2640584</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2742810</v>
+        <v>2734630</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7189589608159107</v>
+        <v>0.7189589608159106</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.706956468430131</v>
+        <v>0.7066139869932319</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7339693894236188</v>
+        <v>0.7317803877397165</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6524</v>
@@ -2590,19 +2590,19 @@
         <v>5723141</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5655407</v>
+        <v>5661018</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5785417</v>
+        <v>5786285</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.787257798322922</v>
+        <v>0.7872577983229221</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7779405473514892</v>
+        <v>0.7787123489247627</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7958243159229351</v>
+        <v>0.795943733110714</v>
       </c>
     </row>
     <row r="30">
